--- a/csv/svm/svm_rawfdasigmoid_final.xlsx
+++ b/csv/svm/svm_rawfdasigmoid_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02913357911583754</v>
+        <v>0.03247347762361145</v>
       </c>
     </row>
   </sheetData>
@@ -201,10 +201,10 @@
         <v>34.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -224,13 +224,13 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +261,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -276,7 +276,7 @@
         <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
     </row>
   </sheetData>
